--- a/benchmarkInstance.xlsx
+++ b/benchmarkInstance.xlsx
@@ -357,24 +357,24 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>45376.81161586379</v>
+        <v>45376.84219214619</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2">
-        <v>0.000121854464</v>
+        <v>0.0009801714</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>45376.81161586379</v>
+        <v>45376.84219214619</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>0.000121854464</v>
+        <v>0.0009801714</v>
       </c>
     </row>
   </sheetData>
